--- a/main code/data/더쿠.xlsx
+++ b/main code/data/더쿠.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[에픽세븐] 권은비 &amp; 로켓펀치(쥬리)의 OST 비하인드! (I'll be your Energy)
-1</t>
+          <t>집에서 크리스마스 화보찍은 에일리.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2090935</v>
+        <v>2092057</v>
       </c>
     </row>
     <row r="3">
@@ -493,25 +492,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>생각해보면 은근 돈이 없는 것 같은 닥터 스트레인지
- 14</t>
+          <t>졸업식에서 엄마도 도저히 참지 못한 것.jpg
+ 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>279</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2090934</v>
+        <v>2092056</v>
       </c>
     </row>
     <row r="4">
@@ -520,25 +519,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'올림픽 높이뛰기 한국신기록' 우상혁, 세계랭킹 기록 공동 6위 우뚝섰다
-1</t>
+          <t>찐 여행 브이로그 바이브인 남돌 컴백 티저</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 16:37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2090933</v>
+        <v>2092055</v>
       </c>
     </row>
     <row r="5">
@@ -547,25 +545,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>자꾸 뒤늦게 자각하는 아이돌 자아
- 23</t>
+          <t>‘개 식용’ 세계 2위 베트남…주인 눈앞에서 전기충격기로 개 훔친 10대들
+ 1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:37</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>115</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2090932</v>
+        <v>2092054</v>
       </c>
     </row>
     <row r="6">
@@ -574,25 +572,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>중년 이후의 뷰티 관리 방법 (긴글 주의)
-18</t>
+          <t>KIA 이우성, 1월 16일 결혼 "야구인생에도 변화 생기길"
+ 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2090931</v>
+        <v>2092053</v>
       </c>
     </row>
     <row r="7">
@@ -601,25 +599,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>의외로 이목구비도 동글동글하고 말랑하게 생긴 아이돌
- 5</t>
+          <t>2022년 1분기 드라마 예정작들.jpg
+ 4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>316</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>2090930</v>
+        <v>2092052</v>
       </c>
     </row>
     <row r="8">
@@ -628,25 +626,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>컴백보다 감자가 중요한 펜타곤 멤버.jpg
- 3</t>
+          <t>면접 볼 때 손 안 보지? 제발.JPG
+ 9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>2090929</v>
+        <v>2092051</v>
       </c>
     </row>
     <row r="9">
@@ -655,25 +653,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>적으로 돌리면 안되는 인간 1순위는.twt
- 5</t>
+          <t>당신이 봄인가보오</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>128</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2090928</v>
+        <v>2092050</v>
       </c>
     </row>
     <row r="10">
@@ -682,25 +679,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>그때 그시절 원덕이가 좋아했던 프듀 48 직캠
-1</t>
+          <t>마늘의 민족 한국인
+ 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>501</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2090927</v>
+        <v>2092049</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +706,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;그것이 알고 싶다&gt;에서는 일어나지 않은 일에 대한 기억(오기억)으로 인해 가족이나 지인으로부터 범죄 가해자로 지목 당한 경험이 있는 분들의 연락을 기다립니다.
- 3</t>
+          <t>우울증 걸리는 게 이해되는 스웨덴의 사계절.JPG (하루 종일 낮 vs 하루 종일 밤)
+ 15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>1712</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>2090926</v>
+        <v>2092048</v>
       </c>
     </row>
     <row r="12">
@@ -736,25 +733,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>옆집에서 부부싸움을 하기 시작했다.gif
- 7</t>
+          <t>[박병호 인터뷰]"마음이 뒤숭숭했다" 키움→kt 박병호는 고민을 거듭했다
+5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>2090925</v>
+        <v>2092047</v>
       </c>
     </row>
     <row r="13">
@@ -763,25 +760,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[할리우드IS] '달라스 바이어스 클럽' 장 마크 발레 감독, 숨진 채 발견
-14</t>
+          <t>두 달 된 신생아 떨어뜨려 숨지게 한 산후도우미 징역 3년
+ 40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>2090924</v>
+        <v>2092046</v>
       </c>
     </row>
     <row r="14">
@@ -790,25 +787,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>요기요 근황
- 20</t>
+          <t>피 철철 흘리는 골댕이
+ 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>2090923</v>
+        <v>2092045</v>
       </c>
     </row>
     <row r="15">
@@ -817,25 +814,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>헤어스타일 스펙트럼 또 넓힌 남돌
- 2</t>
+          <t>뷰티유튜버 회사원A가 2주 동안 유럽 가서 찍어온 컨텐츠 양
+ 48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:23</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F15" t="n">
-        <v>2090922</v>
+        <v>2092044</v>
       </c>
     </row>
     <row r="16">
@@ -844,25 +841,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>퇴근해서 신난 버스기사님.jpg
- 16</t>
+          <t>의외인 주식 종목 이름
+ 15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>2090921</v>
+        <v>2092043</v>
       </c>
     </row>
     <row r="17">
@@ -871,25 +868,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>사운드트랙#1 박형식 한소희 첫 투샷.jpg
- 12</t>
+          <t>네이버페이 5000원
+ 197</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>6312</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="F17" t="n">
-        <v>2090920</v>
+        <v>2092042</v>
       </c>
     </row>
     <row r="18">
@@ -898,25 +895,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021 올해 미니시리즈 드라마 평균 시청률 1,2,3위 기록한 펜트하우스.jpg
- 24</t>
+          <t>'유퀴즈' 본방 2주간 못 본다 "오늘(29일) 특별판 편성"(공식)
+ 3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>503</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>2090919</v>
+        <v>2092041</v>
       </c>
     </row>
     <row r="19">
@@ -925,25 +922,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>배우 박병은, 국립암센터에 5000만원 기부..따뜻한 '세밑 선행'
- 10</t>
+          <t>강동원 어릴때 방충망 부신 썰.jpg
+ 17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>2090918</v>
+        <v>2092040</v>
       </c>
     </row>
     <row r="20">
@@ -952,25 +949,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>국민거포 KT행 임박? 이정후, 의미심장한 SNS '박병호와 추억'
- 6</t>
+          <t>대한민국의 국토&amp;인구 타 국가와 비교.JPG
+ 29</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>2090917</v>
+        <v>2092039</v>
       </c>
     </row>
     <row r="21">
@@ -979,25 +976,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[단독]인피니트 출신 이호원, FA 됐다…글로리어스와 계약 종료
-8</t>
+          <t>'옷소매' 7주 연속 화제성 1위…'설강화' 논란으로 2위
+5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>344</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>2090916</v>
+        <v>2092038</v>
       </c>
     </row>
     <row r="22">
@@ -1006,25 +1003,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>서예지, 복귀작 '이브' 확정..1% 상류층 부부의 이혼 내막
- 24</t>
+          <t>'대한외국인' 원슈타인 "MSG워너비 중 가장 고마운 멤버 김정민X지석진" [TV스포]
+ 2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2090915</v>
+        <v>2092037</v>
       </c>
     </row>
     <row r="23">
@@ -1033,25 +1030,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>눈오는 날 골댕이의 산책
-17</t>
+          <t>아이들 민니 뿌까머리 인스타 업뎃.JPG
+ 4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>715</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2090914</v>
+        <v>2092036</v>
       </c>
     </row>
     <row r="24">
@@ -1060,25 +1057,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>내가 직접 찾은 ppl아닌 연예인 찐템들
- 486</t>
+          <t>아이브, 아날로그 추억 소환…‘다시 만난 세계’→‘Hug’까지 명품 커버 비하인드
+7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.4만</t>
+          <t>381</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>2090913</v>
+        <v>2092035</v>
       </c>
     </row>
     <row r="25">
@@ -1087,25 +1084,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SBS, 2년 연속 드라마 평균 시청률 1위..JTBC가 꼴찌
- 7</t>
+          <t>"저는 좌심방과 좌심실이 없는 채 태어나 자다가 죽을 수도 있다는 진단을 세상과 처음 만나자마자 받았었고, 지금은 서른하나를 목전에 두고 있습니다."
+ 31</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>2090912</v>
+        <v>2092034</v>
       </c>
     </row>
     <row r="26">
@@ -1114,25 +1111,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>서로 옷 바꿔입기한 프리지아X권은비
- 22</t>
+          <t>종영 '백종원의 골목식당' 논란에도 의미있던 4년 행보[TV보고서]
+6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>595</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>2090911</v>
+        <v>2092033</v>
       </c>
     </row>
     <row r="27">
@@ -1141,25 +1138,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>‘학폭 논란’ 김동희 측 “수사 결과 무혐의, 장애인 괴롭힌 사실 無”[공식입장]
-208</t>
+          <t>호남권에서 장사 접는다는 시계브랜드
+ 14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7581</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>2090910</v>
+        <v>2092032</v>
       </c>
     </row>
     <row r="28">
@@ -1168,25 +1165,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2000-2021년까지 일본에서 매출 Top10에 들었던 여가수들 (아무로, 아유, 보아 등등)
- 8</t>
+          <t>요즘 투디 아이돌 게임 뮤비(찐 2D)
+ 11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>530</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
-        <v>2090909</v>
+        <v>2092031</v>
       </c>
     </row>
     <row r="29">
@@ -1195,25 +1192,214 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>할리우드에서 비슷한 느낌이라는 세 커플
- 9</t>
+          <t>아이한테 약 먹이는 법
+ 4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>2090908</v>
+        <v>2092030</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>까꿍하는 인형을 본 아기 강아지들의 반응ㅋㅋㅋㅋㅋ
+ 12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2092029</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>올해 Z세대에게 가장 사랑받은 가수는? 멜론 데이터 독점 분석
+21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2092028</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>일본가면 한국보다 확실히 나은 것.jpg
+ 40</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>40</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2092027</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10대에 공무원이 된 그들…'지역인재 9급' 최대규모로 뽑았다
+17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:12</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>17</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2092026</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>운전할 때 의외로 조수석에 자주 두는 것
+ 8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:12</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2092025</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>360도 변한 k-주먹짤 ㄷㄷ
+4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:11</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2092024</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>역대 멜론에서 좋아요 수 10만개 이상곡들 총 모음(12월29일 기준)
+19</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:10</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>19</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2092023</v>
       </c>
     </row>
   </sheetData>
